--- a/Liam's_GanttChart.xlsx
+++ b/Liam's_GanttChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSIT3\327\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\liams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E045A1A-F74D-4004-B27D-34AFC9E5C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE164AD-9E66-4142-BF77-8EA9CEAF9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Members:</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>In - Progress</t>
+  </si>
+  <si>
+    <t>5. UI design of Leave and Branch</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,7 +257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,23 +574,23 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="5" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="3"/>
@@ -603,7 +605,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +622,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -637,7 +639,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -654,7 +656,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -671,7 +673,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -686,7 +688,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +707,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
@@ -722,7 +724,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -739,7 +741,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
@@ -756,7 +758,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -775,7 +777,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -816,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -841,7 +843,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -866,7 +868,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -891,7 +893,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -916,7 +918,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
@@ -941,7 +943,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
@@ -968,7 +970,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
@@ -993,7 +995,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
@@ -1018,7 +1020,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
@@ -1043,7 +1045,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
@@ -1068,12 +1070,22 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="16"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11">
+        <v>45614</v>
+      </c>
+      <c r="D24" s="11">
+        <v>45615</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1083,7 +1095,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1110,9 +1122,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,19 +1275,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1296,9 +1307,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liam's_GanttChart.xlsx
+++ b/Liam's_GanttChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\liams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSIT3\327\liams_activity_log_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE164AD-9E66-4142-BF77-8EA9CEAF9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9D1E0-46ED-47F8-BCBE-9D03119C852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Members:</t>
   </si>
@@ -75,12 +75,6 @@
     <t xml:space="preserve">Status </t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -102,40 +96,52 @@
     <t>Liam's Flavored Chicken Wing Activity Log System</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2.1 Function requirements</t>
-  </si>
-  <si>
     <t>2. Analysis Description</t>
   </si>
   <si>
-    <t>2.2 Logical Model</t>
-  </si>
-  <si>
     <t>3. Created a design in FIGMA of Liam's System</t>
   </si>
   <si>
-    <t>3.1 Dashboard and User authentication pages</t>
-  </si>
-  <si>
-    <t>3.2 Activity Log and Feedback Pages</t>
-  </si>
-  <si>
-    <t>3.3 Leave and Branch Management Pages</t>
-  </si>
-  <si>
     <t>4. Implemented its pages to Django</t>
   </si>
   <si>
-    <t>4.1 User Authentication Pages</t>
-  </si>
-  <si>
     <t>In - Progress</t>
   </si>
   <si>
-    <t>5. UI design of Leave and Branch</t>
+    <t>Calimpong</t>
+  </si>
+  <si>
+    <t>Donaire</t>
+  </si>
+  <si>
+    <t>Gitgano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.1 Function requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.2 Logical Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.1 Dashboard and User authentication pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.2 Activity Log and Feedback Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3 Leave and Branch Management Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.2 UI design of Leave and Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.3 UI design of Dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.1 UI design Login and Registration </t>
+  </si>
+  <si>
+    <t>5. Implementation of default accounts such as Admins and Super Admins</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -226,11 +232,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +289,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,26 +609,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="3"/>
@@ -605,7 +643,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,9 +660,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -639,9 +677,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -656,9 +694,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -673,7 +711,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -688,7 +726,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -707,7 +745,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
@@ -724,7 +762,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -741,7 +779,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
@@ -758,7 +796,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -777,7 +815,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -818,12 +856,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="11">
         <v>45534</v>
@@ -843,12 +881,12 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="13">
         <v>45558</v>
@@ -868,12 +906,12 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="13">
         <v>45558</v>
@@ -893,12 +931,12 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="13">
         <v>45558</v>
@@ -918,12 +956,12 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>16</v>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="11">
         <v>45576</v>
@@ -943,12 +981,12 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="11">
         <v>45576</v>
@@ -963,19 +1001,19 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="11">
         <v>45576</v>
@@ -995,12 +1033,12 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="11">
         <v>45576</v>
@@ -1020,12 +1058,12 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>16</v>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="11">
         <v>45598</v>
@@ -1034,7 +1072,7 @@
         <v>45599</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1045,12 +1083,12 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="11">
         <v>45598</v>
@@ -1070,12 +1108,12 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="11">
         <v>45614</v>
@@ -1095,12 +1133,22 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18">
+        <v>45613</v>
+      </c>
+      <c r="D25" s="18">
+        <v>45617</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1109,6 +1157,29 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19">
+        <v>45618</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1122,15 +1193,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001570A2FF68DCA949B44B7843430634DD" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d492fbf2c015021d2019a9cb2628d99b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed737b4-88ac-4996-b253-4b3010066cf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65370a0183c9b5c233b7f8b9de795d89" ns2:_="">
     <xsd:import namespace="9ed737b4-88ac-4996-b253-4b3010066cf9"/>
@@ -1274,6 +1336,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1281,14 +1352,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08AC5F-492E-4A0A-9218-240F32F41F20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1306,6 +1369,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>

--- a/Liam's_GanttChart.xlsx
+++ b/Liam's_GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSIT3\327\liams_activity_log_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9D1E0-46ED-47F8-BCBE-9D03119C852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB77C07-D32E-4C52-B5C5-FBCBDA1F4365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Members:</t>
   </si>
@@ -132,16 +132,28 @@
     <t xml:space="preserve">     3.3 Leave and Branch Management Pages</t>
   </si>
   <si>
-    <t xml:space="preserve">     4.2 UI design of Leave and Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.3 UI design of Dashboard </t>
-  </si>
-  <si>
     <t xml:space="preserve">     4.1 UI design Login and Registration </t>
   </si>
   <si>
-    <t>5. Implementation of default accounts such as Admins and Super Admins</t>
+    <t xml:space="preserve">    5.1 Admins can now manage branches and leave request</t>
+  </si>
+  <si>
+    <t>5. Implementation of default accounts such as Admins</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.4 UI design of Activity Log and Feedback and Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.2 UI design of Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.3 UI design of Leave and Branch </t>
   </si>
 </sst>
 </file>
@@ -209,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -239,7 +251,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -249,20 +272,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,18 +319,29 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,17 +667,21 @@
     <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="5" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -643,7 +694,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +711,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -677,7 +728,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -694,7 +745,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -711,7 +762,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -726,7 +777,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -745,7 +796,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
@@ -762,7 +813,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -779,7 +830,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
@@ -796,26 +847,42 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="23"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -832,35 +899,61 @@
         <v>12</v>
       </c>
       <c r="F13" s="9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G13" s="9">
+        <v>31</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="14">
+        <v>11</v>
+      </c>
+      <c r="O13" s="14">
+        <v>12</v>
+      </c>
+      <c r="P13" s="14">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>14</v>
+      </c>
+      <c r="R13" s="14">
         <v>2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="S13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="9">
-        <v>4</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2</v>
-      </c>
-      <c r="L13" s="9">
-        <v>3</v>
-      </c>
-      <c r="M13" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="T13" s="14">
+        <v>17</v>
+      </c>
+      <c r="U13" s="14">
         <v>18</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="V13" s="14">
+        <v>21</v>
+      </c>
+      <c r="W13" s="14">
+        <v>22</v>
+      </c>
+      <c r="X13" s="14">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="11">
@@ -872,20 +965,38 @@
       <c r="E14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="13">
@@ -905,12 +1016,24 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="13">
@@ -930,12 +1053,24 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="13">
@@ -955,12 +1090,24 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="11">
@@ -980,12 +1127,28 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11">
@@ -1007,12 +1170,28 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="11">
@@ -1032,12 +1211,28 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="11">
@@ -1057,20 +1252,34 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="N21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="11">
         <v>45598</v>
       </c>
-      <c r="D22" s="11">
-        <v>45599</v>
-      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1082,12 +1291,28 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="11">
@@ -1107,21 +1332,37 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="11">
-        <v>45614</v>
-      </c>
-      <c r="D24" s="11">
-        <v>45615</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>45613</v>
+      </c>
+      <c r="D24" s="15">
+        <v>45617</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="10"/>
@@ -1132,22 +1373,36 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="18">
-        <v>45613</v>
-      </c>
-      <c r="D25" s="18">
-        <v>45617</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>4</v>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="10"/>
+      <c r="V24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="15">
+        <v>45614</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1157,35 +1412,228 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="15">
+        <v>45614</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C27" s="11">
         <v>45618</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21" t="s">
+      <c r="D27" s="11">
+        <v>45626</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11">
+        <v>45625</v>
+      </c>
+      <c r="D28" s="11">
+        <v>45626</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="R12:Y12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="N12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1193,6 +1641,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001570A2FF68DCA949B44B7843430634DD" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d492fbf2c015021d2019a9cb2628d99b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed737b4-88ac-4996-b253-4b3010066cf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65370a0183c9b5c233b7f8b9de795d89" ns2:_="">
     <xsd:import namespace="9ed737b4-88ac-4996-b253-4b3010066cf9"/>
@@ -1336,15 +1793,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1352,6 +1800,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08AC5F-492E-4A0A-9218-240F32F41F20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1369,14 +1825,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>

--- a/Liam's_GanttChart.xlsx
+++ b/Liam's_GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSIT3\327\liams_activity_log_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB77C07-D32E-4C52-B5C5-FBCBDA1F4365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E85FA-CAB0-465E-9657-E371A58B2E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,13 +323,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,9 +335,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,14 +673,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -853,24 +852,24 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="21" t="s">
         <v>36</v>
       </c>
@@ -1362,7 +1361,7 @@
       <c r="D24" s="15">
         <v>45617</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="10"/>
@@ -1383,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="U24" s="10"/>
-      <c r="V24" s="26" t="s">
+      <c r="V24" s="20" t="s">
         <v>4</v>
       </c>
       <c r="W24" s="10"/>
@@ -1391,10 +1390,10 @@
       <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="15">
@@ -1501,12 +1500,12 @@
         <v>23</v>
       </c>
       <c r="X27" s="10"/>
-      <c r="Y27" s="26" t="s">
+      <c r="Y27" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -1542,7 +1541,7 @@
       <c r="X28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" s="26" t="s">
+      <c r="Y28" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1641,15 +1640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001570A2FF68DCA949B44B7843430634DD" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d492fbf2c015021d2019a9cb2628d99b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed737b4-88ac-4996-b253-4b3010066cf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65370a0183c9b5c233b7f8b9de795d89" ns2:_="">
     <xsd:import namespace="9ed737b4-88ac-4996-b253-4b3010066cf9"/>
@@ -1793,6 +1783,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1800,14 +1799,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08AC5F-492E-4A0A-9218-240F32F41F20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1825,6 +1816,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>

--- a/Liam's_GanttChart.xlsx
+++ b/Liam's_GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSIT3\327\liams_activity_log_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E85FA-CAB0-465E-9657-E371A58B2E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70949FF2-3269-4D25-935E-F8968EBB8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Members:</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>B. Donaire, John Gerard</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>3. Created a design in FIGMA of Liam's System</t>
   </si>
   <si>
-    <t>4. Implemented its pages to Django</t>
-  </si>
-  <si>
     <t>In - Progress</t>
   </si>
   <si>
@@ -132,28 +126,76 @@
     <t xml:space="preserve">     3.3 Leave and Branch Management Pages</t>
   </si>
   <si>
-    <t xml:space="preserve">     4.1 UI design Login and Registration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.1 Admins can now manage branches and leave request</t>
-  </si>
-  <si>
-    <t>5. Implementation of default accounts such as Admins</t>
-  </si>
-  <si>
     <t>October</t>
   </si>
   <si>
     <t>November</t>
   </si>
   <si>
-    <t xml:space="preserve">     4.4 UI design of Activity Log and Feedback and Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.2 UI design of Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.3 UI design of Leave and Branch </t>
+    <t>Calimpong, Donaire, Gitgano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Implemented the logic of each Pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.1 UI design Login and Registration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.2 UI design of Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.3 UI design of Leave and Branch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.1 Admins can now manage branches and leave request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.1 At least 4 Recent Logs will now be displayed at the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.2 Users can edit their profile</t>
+  </si>
+  <si>
+    <t>22/112024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.5 User can apply leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.4 User can add feedbacks and comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.3 User can log activities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24/11/2024</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>6. Implementation of default accounts such as Admin and SuperAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.6 Admin and User restrictions in Activities and Feedback &amp; Comment</t>
+  </si>
+  <si>
+    <t>5. Implementation of the UI in all pages</t>
+  </si>
+  <si>
+    <t>18/112024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.4 UI design of Branch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.5 UI design of Activity Log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.6 UI design of Feedback and Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22/11/2024</t>
   </si>
 </sst>
 </file>
@@ -221,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -294,11 +336,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,11 +380,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -332,15 +393,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,21 +749,22 @@
     <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="5" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -693,7 +777,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,9 +794,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -727,9 +811,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -744,9 +828,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -761,7 +845,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -776,7 +860,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -795,7 +879,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
@@ -812,7 +896,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -829,7 +913,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
@@ -846,42 +930,52 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="23"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -908,74 +1002,96 @@
       <c r="J13" s="9">
         <v>23</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9">
+        <v>24</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <v>11</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <v>12</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <v>13</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <v>14</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <v>2</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="12">
         <v>3</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="12">
         <v>17</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="12">
         <v>18</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="12">
         <v>21</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="30">
         <v>22</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="38">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="26">
         <v>29</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Z13" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="AA13" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="38">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="25">
         <v>45534</v>
       </c>
-      <c r="D14" s="11">
-        <v>45535</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="25">
+        <v>45534</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="10"/>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -987,31 +1103,37 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="W14" s="31"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="25">
         <v>45558</v>
       </c>
-      <c r="D15" s="13">
-        <v>45558</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="25">
+        <v>45559</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1024,24 +1146,30 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W15" s="31"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13">
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="25">
         <v>45558</v>
       </c>
-      <c r="D16" s="13">
-        <v>45558</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="25">
+        <v>45559</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="10"/>
@@ -1061,24 +1189,30 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W16" s="31"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13">
+      <c r="B17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="25">
         <v>45558</v>
       </c>
-      <c r="D17" s="13">
-        <v>45558</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="25">
+        <v>45559</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="10"/>
@@ -1098,24 +1232,30 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="W17" s="31"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="25">
         <v>45576</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="25">
         <v>45579</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="10"/>
@@ -1126,12 +1266,12 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="17" t="s">
-        <v>23</v>
+      <c r="N18" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="10"/>
@@ -1139,24 +1279,30 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W18" s="31"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="25">
         <v>45576</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="25">
         <v>45578</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="10"/>
@@ -1169,11 +1315,11 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="17" t="s">
-        <v>23</v>
+      <c r="N19" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="10"/>
@@ -1182,24 +1328,30 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W19" s="31"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="11">
+        <v>28</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="25">
         <v>45576</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="25">
         <v>45578</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="10"/>
@@ -1210,11 +1362,11 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="17" t="s">
-        <v>23</v>
+      <c r="N20" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="10"/>
@@ -1223,24 +1375,30 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W20" s="31"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="11">
+        <v>29</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="25">
         <v>45576</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="25">
         <v>45578</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="10"/>
@@ -1251,11 +1409,11 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="17" t="s">
-        <v>23</v>
+      <c r="N21" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="O21" s="10"/>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="10"/>
@@ -1264,104 +1422,124 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="W21" s="31"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="25">
         <v>45598</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="25">
+        <v>45634</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="17" t="s">
+      <c r="C23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11">
-        <v>45598</v>
-      </c>
-      <c r="D23" s="11">
-        <v>45599</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="11">
-        <v>45613</v>
-      </c>
-      <c r="D24" s="15">
-        <v>45617</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="C24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="25">
+        <v>45620</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="10"/>
@@ -1378,30 +1556,38 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="V24" s="10"/>
+      <c r="W24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="15">
-        <v>45614</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
-        <v>23</v>
+      <c r="C25" s="25">
+        <v>45618</v>
+      </c>
+      <c r="D25" s="25">
+        <v>45630</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1418,36 +1604,46 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="15">
-        <v>45614</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25">
+        <v>45618</v>
+      </c>
+      <c r="D26" s="25">
+        <v>45629</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -1455,38 +1651,46 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="11">
-        <v>45618</v>
-      </c>
-      <c r="D27" s="11">
-        <v>45626</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="W26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="25">
+        <v>45627</v>
+      </c>
+      <c r="D27" s="25">
+        <v>45627</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -1496,38 +1700,42 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W27" s="31"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="11">
-        <v>45625</v>
-      </c>
-      <c r="D28" s="11">
-        <v>45626</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="25">
+        <v>45631</v>
+      </c>
+      <c r="D28" s="25">
+        <v>45631</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -1537,98 +1745,447 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y28" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="13"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="25">
+        <v>45598</v>
+      </c>
+      <c r="D29" s="25">
+        <v>45634</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="R29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="25">
+        <v>45598</v>
+      </c>
+      <c r="D30" s="25">
+        <v>45599</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="R30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="25">
+        <v>45613</v>
+      </c>
+      <c r="D31" s="25">
+        <v>45617</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
+      <c r="T31" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
+      <c r="V31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" s="31"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="25">
+        <v>45614</v>
+      </c>
+      <c r="D32" s="25">
+        <v>45629</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="24"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="25">
+        <v>45614</v>
+      </c>
+      <c r="D33" s="25">
+        <v>45629</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="29">
+        <v>45614</v>
+      </c>
+      <c r="D34" s="29">
+        <v>45630</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="24"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="25">
+        <v>45630</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="25">
+        <v>45618</v>
+      </c>
+      <c r="D36" s="25">
+        <v>45626</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="25">
+        <v>45625</v>
+      </c>
+      <c r="D37" s="25">
+        <v>45626</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z37" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="R12:Y12"/>
+  <mergeCells count="6">
+    <mergeCell ref="R12:Z12"/>
+    <mergeCell ref="AA12:AE12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A1:B2"/>
@@ -1640,6 +2197,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001570A2FF68DCA949B44B7843430634DD" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d492fbf2c015021d2019a9cb2628d99b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed737b4-88ac-4996-b253-4b3010066cf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65370a0183c9b5c233b7f8b9de795d89" ns2:_="">
     <xsd:import namespace="9ed737b4-88ac-4996-b253-4b3010066cf9"/>
@@ -1783,15 +2349,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1799,6 +2356,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08AC5F-492E-4A0A-9218-240F32F41F20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1816,14 +2381,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
   <ds:schemaRefs>
